--- a/TestData/LV_TMTI0063927_VerifyViewCounterpartiesButtonAndViewsOnSalesforceLightningVersion.xlsx
+++ b/TestData/LV_TMTI0063927_VerifyViewCounterpartiesButtonAndViewsOnSalesforceLightningVersion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0D52D8-DF14-4592-92B1-516B2ED7A05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6287B97F-DE4D-486F-8A3E-0422D70BE85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -345,7 +345,7 @@
     <t>Abrasive Form</t>
   </si>
   <si>
-    <t>Brian Miller</t>
+    <t>Jennie Stewart</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
